--- a/result/ResultA&B.xlsx
+++ b/result/ResultA&B.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ehsan/Desktop/WorkSpace/Driving+Fatigue/result/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ehsan/Desktop/WorkSpace/driving-fatigue/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9820" yWindow="1760" windowWidth="25600" windowHeight="20060" tabRatio="500"/>
+    <workbookView xWindow="3200" yWindow="460" windowWidth="25600" windowHeight="16560" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Night A" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="BioMath Values Nigth A" sheetId="8" r:id="rId4"/>
     <sheet name="BioMath Values Night B" sheetId="9" r:id="rId5"/>
     <sheet name="BioMath Values Day A" sheetId="10" r:id="rId6"/>
+    <sheet name="Model" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="13">
   <si>
     <t>Day</t>
   </si>
@@ -62,6 +63,15 @@
   </si>
   <si>
     <t>******* Average STEX3 for time points **********</t>
+  </si>
+  <si>
+    <t>Night A</t>
+  </si>
+  <si>
+    <t>Night B</t>
+  </si>
+  <si>
+    <t>Day A</t>
   </si>
 </sst>
 </file>
@@ -100,7 +110,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +138,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,7 +280,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -292,6 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -898,11 +915,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2106197488"/>
-        <c:axId val="2107244448"/>
+        <c:axId val="2101772112"/>
+        <c:axId val="2101778912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2106197488"/>
+        <c:axId val="2101772112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1003,7 +1020,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107244448"/>
+        <c:crossAx val="2101778912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1012,7 +1029,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2107244448"/>
+        <c:axId val="2101778912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.5"/>
@@ -1108,7 +1125,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2106197488"/>
+        <c:crossAx val="2101772112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1732,11 +1749,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2107325040"/>
-        <c:axId val="2107331216"/>
+        <c:axId val="2101889200"/>
+        <c:axId val="2101895376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2107325040"/>
+        <c:axId val="2101889200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1837,7 +1854,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107331216"/>
+        <c:crossAx val="2101895376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1846,7 +1863,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2107331216"/>
+        <c:axId val="2101895376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1941,7 +1958,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107325040"/>
+        <c:crossAx val="2101889200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2603,11 +2620,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2107388368"/>
-        <c:axId val="2107394560"/>
+        <c:axId val="2101930496"/>
+        <c:axId val="2101936688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2107388368"/>
+        <c:axId val="2101930496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2708,7 +2725,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107394560"/>
+        <c:crossAx val="2101936688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2717,7 +2734,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2107394560"/>
+        <c:axId val="2101936688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2812,7 +2829,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107388368"/>
+        <c:crossAx val="2101930496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3558,8 +3575,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2107422768"/>
-        <c:axId val="2107426032"/>
+        <c:axId val="2081676752"/>
+        <c:axId val="2081673424"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5376,11 +5393,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2107422768"/>
-        <c:axId val="2107426032"/>
+        <c:axId val="2081676752"/>
+        <c:axId val="2081673424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2107422768"/>
+        <c:axId val="2081676752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5423,7 +5440,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107426032"/>
+        <c:crossAx val="2081673424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5432,7 +5449,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2107426032"/>
+        <c:axId val="2081673424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -5484,7 +5501,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107422768"/>
+        <c:crossAx val="2081676752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6322,8 +6339,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2106289216"/>
-        <c:axId val="2106292480"/>
+        <c:axId val="2101123904"/>
+        <c:axId val="2101127072"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8428,11 +8445,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2106289216"/>
-        <c:axId val="2106292480"/>
+        <c:axId val="2101123904"/>
+        <c:axId val="2101127072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2106289216"/>
+        <c:axId val="2101123904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8475,7 +8492,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2106292480"/>
+        <c:crossAx val="2101127072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8484,7 +8501,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2106292480"/>
+        <c:axId val="2101127072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -8536,7 +8553,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2106289216"/>
+        <c:crossAx val="2101123904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9304,8 +9321,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2107461616"/>
-        <c:axId val="2107458768"/>
+        <c:axId val="2101170112"/>
+        <c:axId val="2101173376"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11194,11 +11211,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2107461616"/>
-        <c:axId val="2107458768"/>
+        <c:axId val="2101170112"/>
+        <c:axId val="2101173376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2107461616"/>
+        <c:axId val="2101170112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11241,7 +11258,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107458768"/>
+        <c:crossAx val="2101173376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11250,7 +11267,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2107458768"/>
+        <c:axId val="2101173376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -11302,7 +11319,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107461616"/>
+        <c:crossAx val="2101170112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11316,6 +11333,758 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PVT Performance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> In the Night Shift</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.103216734614309"/>
+          <c:y val="0.24326320321071"/>
+          <c:w val="0.864490477441665"/>
+          <c:h val="0.633568303962005"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Night A</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="minus"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0.3"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Model!$B$15:$L$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>21:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34 h break</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Model!$B$16:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Night B</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="plus"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0.3"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="51000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Model!$B$15:$L$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>21:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34 h break</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Model!$B$21:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Day A</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="minus"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0.3"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Model!$B$15:$L$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>21:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34 h break</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Model!$B$26:$L$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2141870464"/>
+        <c:axId val="2144890192"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2141870464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time points</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> within days</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2144890192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2144890192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>PVT lapses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2141870464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11583,6 +12352,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -14718,6 +15527,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -14907,6 +16232,43 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>73660</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -15191,8 +16553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27710,4 +29072,431 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A14:K28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C15" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D16">
+        <v>0.6</v>
+      </c>
+      <c r="E16">
+        <v>1.01</v>
+      </c>
+      <c r="F16">
+        <v>1.5</v>
+      </c>
+      <c r="H16">
+        <v>1.01</v>
+      </c>
+      <c r="I16">
+        <v>0.85</v>
+      </c>
+      <c r="J16">
+        <v>0.8</v>
+      </c>
+      <c r="K16">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="e">
+        <f>STDEV(B3:B7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D17" t="e">
+        <f>STDEV(C3:C7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E17" t="e">
+        <f>STDEV(D3:D7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F17" t="e">
+        <f>STDEV(E3:E7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" t="e">
+        <f>STDEV(B9:B13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" t="e">
+        <f>STDEV(C9:C13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" t="e">
+        <f>STDEV(D9:D13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K17" t="e">
+        <f>STDEV(E9:E13)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="e">
+        <f>(C17/SQRT(COUNT(B3:B7)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D18" t="e">
+        <f>(D17/SQRT(COUNT(C3:C7)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E18" t="e">
+        <f>(E17/SQRT(COUNT(D3:D7)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F18" t="e">
+        <f>(F17/SQRT(COUNT(E3:E7)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" t="e">
+        <f>(H17/SQRT(COUNT(B9:B13)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" t="e">
+        <f>(I17/SQRT(COUNT(C9:C13)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" t="e">
+        <f>(J17/SQRT(COUNT(D9:D13)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K18" t="e">
+        <f>(K17/SQRT(COUNT(E9:E13)))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C20" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0.62</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1.45</v>
+      </c>
+      <c r="F21">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H21">
+        <v>1.03</v>
+      </c>
+      <c r="I21">
+        <v>1.2</v>
+      </c>
+      <c r="J21">
+        <v>1.3</v>
+      </c>
+      <c r="K21">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="e">
+        <f>STDEV(B8:B12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D22" t="e">
+        <f>STDEV(C8:C12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" t="e">
+        <f>STDEV(D8:D12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F22" t="e">
+        <f>STDEV(E8:E12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H22" t="e">
+        <f>STDEV(B14:B18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" t="e">
+        <f>STDEV(C14:C18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22" t="e">
+        <f>STDEV(D14:D18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" t="e">
+        <f>STDEV(E14:E18)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="e">
+        <f>(C22/SQRT(COUNT(B8:B12)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D23" t="e">
+        <f>(D22/SQRT(COUNT(C8:C12)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E23" t="e">
+        <f>(E22/SQRT(COUNT(D8:D12)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F23" t="e">
+        <f>(F22/SQRT(COUNT(E8:E12)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H23" t="e">
+        <f>(H22/SQRT(COUNT(B14:B18)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" t="e">
+        <f>(I22/SQRT(COUNT(C14:C18)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J23" t="e">
+        <f>(J22/SQRT(COUNT(D14:D18)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K23" t="e">
+        <f>(K22/SQRT(COUNT(E14:E18)))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C25" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0.6</v>
+      </c>
+      <c r="D26">
+        <v>0.8</v>
+      </c>
+      <c r="E26">
+        <v>0.75</v>
+      </c>
+      <c r="F26">
+        <v>0.8</v>
+      </c>
+      <c r="H26">
+        <v>1.05</v>
+      </c>
+      <c r="I26">
+        <v>0.8</v>
+      </c>
+      <c r="J26">
+        <v>1.2</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="e">
+        <f>STDEV(B13:B17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" t="e">
+        <f>STDEV(C13:C17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" t="e">
+        <f>STDEV(D13:D17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" t="e">
+        <f>STDEV(E13:E17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H27" t="e">
+        <f>STDEV(B19:B23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" t="e">
+        <f>STDEV(C19:C23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J27" t="e">
+        <f>STDEV(D19:D23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" t="e">
+        <f>STDEV(E19:E23)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="e">
+        <f>(C27/SQRT(COUNT(B13:B17)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D28" t="e">
+        <f>(D27/SQRT(COUNT(C13:C17)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" t="e">
+        <f>(E27/SQRT(COUNT(D13:D17)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F28" t="e">
+        <f>(F27/SQRT(COUNT(E13:E17)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" t="e">
+        <f>(H27/SQRT(COUNT(B19:B23)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" t="e">
+        <f>(I27/SQRT(COUNT(C19:C23)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28" t="e">
+        <f>(J27/SQRT(COUNT(D19:D23)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K28" t="e">
+        <f>(K27/SQRT(COUNT(E19:E23)))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/result/ResultA&B.xlsx
+++ b/result/ResultA&B.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ehsan/Desktop/WorkSpace/driving-fatigue/result/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ehsan/Desktop/WorkSpace/Driving+Fatigue/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="460" windowWidth="25600" windowHeight="16560" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="10540" yWindow="1640" windowWidth="25600" windowHeight="20060" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Night A" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="BioMath Values Nigth A" sheetId="8" r:id="rId4"/>
     <sheet name="BioMath Values Night B" sheetId="9" r:id="rId5"/>
     <sheet name="BioMath Values Day A" sheetId="10" r:id="rId6"/>
-    <sheet name="Model" sheetId="11" r:id="rId7"/>
+    <sheet name="sleep schedule" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="25">
   <si>
     <t>Day</t>
   </si>
@@ -65,13 +65,49 @@
     <t>******* Average STEX3 for time points **********</t>
   </si>
   <si>
-    <t>Night A</t>
+    <t>Day 1</t>
   </si>
   <si>
-    <t>Night B</t>
+    <t>Day 2</t>
   </si>
   <si>
-    <t>Day A</t>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>Day 3</t>
+  </si>
+  <si>
+    <t>Day 4</t>
+  </si>
+  <si>
+    <t>Day 5</t>
+  </si>
+  <si>
+    <t>Day 6</t>
+  </si>
+  <si>
+    <t>Day 7</t>
+  </si>
+  <si>
+    <t>Day 8</t>
+  </si>
+  <si>
+    <t>Day 9</t>
+  </si>
+  <si>
+    <t>Day 10</t>
+  </si>
+  <si>
+    <t>Day 11</t>
+  </si>
+  <si>
+    <t>Day 12</t>
+  </si>
+  <si>
+    <t>Day 13</t>
+  </si>
+  <si>
+    <t>Day 14</t>
   </si>
 </sst>
 </file>
@@ -110,7 +146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,12 +179,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -272,6 +320,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -280,7 +361,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -309,6 +390,37 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -915,11 +1027,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2101772112"/>
-        <c:axId val="2101778912"/>
+        <c:axId val="2120589792"/>
+        <c:axId val="2130985488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2101772112"/>
+        <c:axId val="2120589792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1020,7 +1132,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2101778912"/>
+        <c:crossAx val="2130985488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1029,7 +1141,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101778912"/>
+        <c:axId val="2130985488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.5"/>
@@ -1125,7 +1237,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2101772112"/>
+        <c:crossAx val="2120589792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1749,11 +1861,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2101889200"/>
-        <c:axId val="2101895376"/>
+        <c:axId val="2131225648"/>
+        <c:axId val="2131250064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2101889200"/>
+        <c:axId val="2131225648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1854,7 +1966,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2101895376"/>
+        <c:crossAx val="2131250064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1863,7 +1975,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101895376"/>
+        <c:axId val="2131250064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1958,7 +2070,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2101889200"/>
+        <c:crossAx val="2131225648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2620,11 +2732,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2101930496"/>
-        <c:axId val="2101936688"/>
+        <c:axId val="2131447824"/>
+        <c:axId val="2131454000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2101930496"/>
+        <c:axId val="2131447824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2725,7 +2837,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2101936688"/>
+        <c:crossAx val="2131454000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2734,7 +2846,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101936688"/>
+        <c:axId val="2131454000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2829,7 +2941,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2101930496"/>
+        <c:crossAx val="2131447824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3575,8 +3687,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2081676752"/>
-        <c:axId val="2081673424"/>
+        <c:axId val="2120462176"/>
+        <c:axId val="2120461712"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5393,11 +5505,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2081676752"/>
-        <c:axId val="2081673424"/>
+        <c:axId val="2120462176"/>
+        <c:axId val="2120461712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2081676752"/>
+        <c:axId val="2120462176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5440,7 +5552,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2081673424"/>
+        <c:crossAx val="2120461712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5449,7 +5561,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2081673424"/>
+        <c:axId val="2120461712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -5501,7 +5613,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2081676752"/>
+        <c:crossAx val="2120462176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6339,8 +6451,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2101123904"/>
-        <c:axId val="2101127072"/>
+        <c:axId val="2120421680"/>
+        <c:axId val="2120481072"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8445,11 +8557,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2101123904"/>
-        <c:axId val="2101127072"/>
+        <c:axId val="2120421680"/>
+        <c:axId val="2120481072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2101123904"/>
+        <c:axId val="2120421680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8492,7 +8604,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2101127072"/>
+        <c:crossAx val="2120481072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8501,7 +8613,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101127072"/>
+        <c:axId val="2120481072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -8553,7 +8665,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2101123904"/>
+        <c:crossAx val="2120421680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9321,8 +9433,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2101170112"/>
-        <c:axId val="2101173376"/>
+        <c:axId val="2120970768"/>
+        <c:axId val="2120973936"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11211,11 +11323,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2101170112"/>
-        <c:axId val="2101173376"/>
+        <c:axId val="2120970768"/>
+        <c:axId val="2120973936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2101170112"/>
+        <c:axId val="2120970768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11258,7 +11370,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2101173376"/>
+        <c:crossAx val="2120973936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11267,7 +11379,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101173376"/>
+        <c:axId val="2120973936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -11319,7 +11431,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2101170112"/>
+        <c:crossAx val="2120970768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11333,758 +11445,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>PVT Performance</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> In the Night Shift</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.103216734614309"/>
-          <c:y val="0.24326320321071"/>
-          <c:w val="0.864490477441665"/>
-          <c:h val="0.633568303962005"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Night A</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="minus"/>
-            <c:errValType val="fixedVal"/>
-            <c:noEndCap val="0"/>
-            <c:val val="0.3"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>Model!$B$15:$L$15</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="1">
-                  <c:v>21:00</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0:00</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3:00</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6:00</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>34 h break</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21:00</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0:00</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3:00</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6:00</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Model!$B$16:$L$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="1">
-                  <c:v>0.58</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Night B</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="plus"/>
-            <c:errValType val="fixedVal"/>
-            <c:noEndCap val="0"/>
-            <c:val val="0.3"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:alpha val="51000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>Model!$B$15:$L$15</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="1">
-                  <c:v>21:00</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0:00</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3:00</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6:00</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>34 h break</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21:00</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0:00</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3:00</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6:00</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Model!$B$21:$L$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="1">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.45</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.03</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Day A</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="minus"/>
-            <c:errValType val="fixedVal"/>
-            <c:noEndCap val="0"/>
-            <c:val val="0.3"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>Model!$B$15:$L$15</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="1">
-                  <c:v>21:00</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0:00</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3:00</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6:00</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>34 h break</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21:00</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0:00</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3:00</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6:00</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Model!$B$26:$L$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="1">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.05</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2141870464"/>
-        <c:axId val="2144890192"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2141870464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time points</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> within days</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2144890192"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2144890192"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="3.5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>PVT lapses</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2141870464"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12352,46 +11712,6 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -15527,522 +14847,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -16232,43 +15036,6 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>73660</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -16554,7 +15321,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29076,427 +27843,1320 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A14:K28"/>
+  <dimension ref="C5:AC39"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="6.83203125" customWidth="1"/>
+    <col min="5" max="28" width="3.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C15" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="D15" s="1">
+    <row r="5" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+    </row>
+    <row r="6" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="34">
         <v>0</v>
       </c>
-      <c r="E15" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F6" s="35">
+        <v>1</v>
+      </c>
+      <c r="G6" s="35">
+        <v>2</v>
+      </c>
+      <c r="H6" s="35">
+        <v>3</v>
+      </c>
+      <c r="I6" s="35">
+        <v>4</v>
+      </c>
+      <c r="J6" s="35">
         <v>5</v>
       </c>
-      <c r="H15" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="I15" s="1">
+      <c r="K6" s="35">
+        <v>6</v>
+      </c>
+      <c r="L6" s="35">
+        <v>7</v>
+      </c>
+      <c r="M6" s="35">
+        <v>8</v>
+      </c>
+      <c r="N6" s="36">
+        <v>9</v>
+      </c>
+      <c r="O6" s="36">
+        <v>10</v>
+      </c>
+      <c r="P6" s="36">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="36">
+        <v>12</v>
+      </c>
+      <c r="R6" s="36">
+        <v>13</v>
+      </c>
+      <c r="S6" s="36">
+        <v>14</v>
+      </c>
+      <c r="T6" s="36">
+        <v>15</v>
+      </c>
+      <c r="U6" s="36">
+        <v>16</v>
+      </c>
+      <c r="V6" s="36">
+        <v>17</v>
+      </c>
+      <c r="W6" s="36">
+        <v>18</v>
+      </c>
+      <c r="X6" s="36">
+        <v>19</v>
+      </c>
+      <c r="Y6" s="36">
+        <v>20</v>
+      </c>
+      <c r="Z6" s="36">
+        <v>21</v>
+      </c>
+      <c r="AA6" s="36">
+        <v>22</v>
+      </c>
+      <c r="AB6" s="37">
+        <v>23</v>
+      </c>
+      <c r="AC6" s="17"/>
+    </row>
+    <row r="7" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C7" s="17"/>
+      <c r="D7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="17"/>
+    </row>
+    <row r="8" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C8" s="17"/>
+      <c r="D8" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="17"/>
+    </row>
+    <row r="9" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C9" s="17"/>
+      <c r="D9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="17"/>
+    </row>
+    <row r="10" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C10" s="17"/>
+      <c r="D10" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="17"/>
+    </row>
+    <row r="11" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C11" s="17"/>
+      <c r="D11" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="17"/>
+    </row>
+    <row r="12" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C12" s="17"/>
+      <c r="D12" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="17"/>
+    </row>
+    <row r="13" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C13" s="17"/>
+      <c r="D13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="17"/>
+    </row>
+    <row r="14" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C14" s="17"/>
+      <c r="D14" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="17"/>
+    </row>
+    <row r="15" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C15" s="17"/>
+      <c r="D15" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="17"/>
+    </row>
+    <row r="16" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C16" s="17"/>
+      <c r="D16" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="17"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C17" s="17"/>
+      <c r="D17" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="17"/>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C18" s="17"/>
+      <c r="D18" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="17"/>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C19" s="17"/>
+      <c r="D19" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="17"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C20" s="17"/>
+      <c r="D20" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="17"/>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="38">
         <v>0</v>
       </c>
-      <c r="J15" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="F23" s="36">
         <v>1</v>
       </c>
-      <c r="C16">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D16">
-        <v>0.6</v>
-      </c>
-      <c r="E16">
-        <v>1.01</v>
-      </c>
-      <c r="F16">
-        <v>1.5</v>
-      </c>
-      <c r="H16">
-        <v>1.01</v>
-      </c>
-      <c r="I16">
-        <v>0.85</v>
-      </c>
-      <c r="J16">
-        <v>0.8</v>
-      </c>
-      <c r="K16">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="G23" s="36">
         <v>2</v>
       </c>
-      <c r="C17" t="e">
-        <f>STDEV(B3:B7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D17" t="e">
-        <f>STDEV(C3:C7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" t="e">
-        <f>STDEV(D3:D7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" t="e">
-        <f>STDEV(E3:E7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" t="e">
-        <f>STDEV(B9:B13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" t="e">
-        <f>STDEV(C9:C13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J17" t="e">
-        <f>STDEV(D9:D13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K17" t="e">
-        <f>STDEV(E9:E13)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="H23" s="36">
         <v>3</v>
       </c>
-      <c r="C18" t="e">
-        <f>(C17/SQRT(COUNT(B3:B7)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D18" t="e">
-        <f>(D17/SQRT(COUNT(C3:C7)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" t="e">
-        <f>(E17/SQRT(COUNT(D3:D7)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18" t="e">
-        <f>(F17/SQRT(COUNT(E3:E7)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" t="e">
-        <f>(H17/SQRT(COUNT(B9:B13)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" t="e">
-        <f>(I17/SQRT(COUNT(C9:C13)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J18" t="e">
-        <f>(J17/SQRT(COUNT(D9:D13)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K18" t="e">
-        <f>(K17/SQRT(COUNT(E9:E13)))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
+      <c r="I23" s="36">
+        <v>4</v>
+      </c>
+      <c r="J23" s="36">
+        <v>5</v>
+      </c>
+      <c r="K23" s="36">
+        <v>6</v>
+      </c>
+      <c r="L23" s="36">
+        <v>7</v>
+      </c>
+      <c r="M23" s="36">
+        <v>8</v>
+      </c>
+      <c r="N23" s="36">
+        <v>9</v>
+      </c>
+      <c r="O23" s="36">
+        <v>10</v>
+      </c>
+      <c r="P23" s="36">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C20" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="G20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>0.62</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1.45</v>
-      </c>
-      <c r="F21">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H21">
-        <v>1.03</v>
-      </c>
-      <c r="I21">
-        <v>1.2</v>
-      </c>
-      <c r="J21">
-        <v>1.3</v>
-      </c>
-      <c r="K21">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" t="e">
-        <f>STDEV(B8:B12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D22" t="e">
-        <f>STDEV(C8:C12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" t="e">
-        <f>STDEV(D8:D12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" t="e">
-        <f>STDEV(E8:E12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" t="e">
-        <f>STDEV(B14:B18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" t="e">
-        <f>STDEV(C14:C18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" t="e">
-        <f>STDEV(D14:D18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K22" t="e">
-        <f>STDEV(E14:E18)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="e">
-        <f>(C22/SQRT(COUNT(B8:B12)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D23" t="e">
-        <f>(D22/SQRT(COUNT(C8:C12)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E23" t="e">
-        <f>(E22/SQRT(COUNT(D8:D12)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" t="e">
-        <f>(F22/SQRT(COUNT(E8:E12)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H23" t="e">
-        <f>(H22/SQRT(COUNT(B14:B18)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" t="e">
-        <f>(I22/SQRT(COUNT(C14:C18)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J23" t="e">
-        <f>(J22/SQRT(COUNT(D14:D18)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" t="e">
-        <f>(K22/SQRT(COUNT(E14:E18)))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
+      <c r="Q23" s="36">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C25" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="G25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>0.6</v>
-      </c>
-      <c r="D26">
-        <v>0.8</v>
-      </c>
-      <c r="E26">
-        <v>0.75</v>
-      </c>
-      <c r="F26">
-        <v>0.8</v>
-      </c>
-      <c r="H26">
-        <v>1.05</v>
-      </c>
-      <c r="I26">
-        <v>0.8</v>
-      </c>
-      <c r="J26">
-        <v>1.2</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" t="e">
-        <f>STDEV(B13:B17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D27" t="e">
-        <f>STDEV(C13:C17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E27" t="e">
-        <f>STDEV(D13:D17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" t="e">
-        <f>STDEV(E13:E17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H27" t="e">
-        <f>STDEV(B19:B23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" t="e">
-        <f>STDEV(C19:C23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J27" t="e">
-        <f>STDEV(D19:D23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K27" t="e">
-        <f>STDEV(E19:E23)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" t="e">
-        <f>(C27/SQRT(COUNT(B13:B17)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D28" t="e">
-        <f>(D27/SQRT(COUNT(C13:C17)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E28" t="e">
-        <f>(E27/SQRT(COUNT(D13:D17)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" t="e">
-        <f>(F27/SQRT(COUNT(E13:E17)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" t="e">
-        <f>(H27/SQRT(COUNT(B19:B23)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" t="e">
-        <f>(I27/SQRT(COUNT(C19:C23)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28" t="e">
-        <f>(J27/SQRT(COUNT(D19:D23)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K28" t="e">
-        <f>(K27/SQRT(COUNT(E19:E23)))</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="R23" s="36">
+        <v>13</v>
+      </c>
+      <c r="S23" s="36">
+        <v>14</v>
+      </c>
+      <c r="T23" s="36">
+        <v>15</v>
+      </c>
+      <c r="U23" s="36">
+        <v>16</v>
+      </c>
+      <c r="V23" s="36">
+        <v>17</v>
+      </c>
+      <c r="W23" s="36">
+        <v>18</v>
+      </c>
+      <c r="X23" s="36">
+        <v>19</v>
+      </c>
+      <c r="Y23" s="36">
+        <v>20</v>
+      </c>
+      <c r="Z23" s="36">
+        <v>21</v>
+      </c>
+      <c r="AA23" s="36">
+        <v>22</v>
+      </c>
+      <c r="AB23" s="37">
+        <v>23</v>
+      </c>
+      <c r="AC23" s="17"/>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C24" s="17"/>
+      <c r="D24" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="24"/>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="17"/>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C25" s="17"/>
+      <c r="D25" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="24"/>
+      <c r="AB25" s="24"/>
+      <c r="AC25" s="17"/>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C26" s="17"/>
+      <c r="D26" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="24"/>
+      <c r="AB26" s="24"/>
+      <c r="AC26" s="17"/>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C27" s="17"/>
+      <c r="D27" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="24"/>
+      <c r="AB27" s="24"/>
+      <c r="AC27" s="17"/>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C28" s="17"/>
+      <c r="D28" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="24"/>
+      <c r="AB28" s="24"/>
+      <c r="AC28" s="17"/>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C29" s="17"/>
+      <c r="D29" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="24"/>
+      <c r="AB29" s="24"/>
+      <c r="AC29" s="17"/>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C30" s="17"/>
+      <c r="D30" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="24"/>
+      <c r="AB30" s="24"/>
+      <c r="AC30" s="17"/>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C31" s="17"/>
+      <c r="D31" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="24"/>
+      <c r="AB31" s="24"/>
+      <c r="AC31" s="17"/>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C32" s="17"/>
+      <c r="D32" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="24"/>
+      <c r="AB32" s="24"/>
+      <c r="AC32" s="17"/>
+    </row>
+    <row r="33" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C33" s="17"/>
+      <c r="D33" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="24"/>
+      <c r="AB33" s="24"/>
+      <c r="AC33" s="17"/>
+    </row>
+    <row r="34" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C34" s="17"/>
+      <c r="D34" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="24"/>
+      <c r="AB34" s="24"/>
+      <c r="AC34" s="17"/>
+    </row>
+    <row r="35" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C35" s="17"/>
+      <c r="D35" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="23"/>
+      <c r="AA35" s="24"/>
+      <c r="AB35" s="24"/>
+      <c r="AC35" s="17"/>
+    </row>
+    <row r="36" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C36" s="17"/>
+      <c r="D36" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="U36" s="23"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="24"/>
+      <c r="AB36" s="24"/>
+      <c r="AC36" s="17"/>
+    </row>
+    <row r="37" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C37" s="17"/>
+      <c r="D37" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="32"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="32"/>
+      <c r="Z37" s="32"/>
+      <c r="AA37" s="32"/>
+      <c r="AB37" s="32"/>
+      <c r="AC37" s="17"/>
+    </row>
+    <row r="38" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="17"/>
+      <c r="AB38" s="17"/>
+      <c r="AC38" s="17"/>
+    </row>
+    <row r="39" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC39" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/result/ResultA&B.xlsx
+++ b/result/ResultA&B.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10540" yWindow="1640" windowWidth="25600" windowHeight="20060" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="3280" yWindow="980" windowWidth="25600" windowHeight="16560" tabRatio="500" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Night A" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="BioMath Values Nigth A" sheetId="8" r:id="rId4"/>
     <sheet name="BioMath Values Night B" sheetId="9" r:id="rId5"/>
     <sheet name="BioMath Values Day A" sheetId="10" r:id="rId6"/>
-    <sheet name="sleep schedule" sheetId="11" r:id="rId7"/>
+    <sheet name="Model" sheetId="11" r:id="rId7"/>
+    <sheet name="sleep schedule" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="28">
   <si>
     <t>Day</t>
   </si>
@@ -63,6 +64,15 @@
   </si>
   <si>
     <t>******* Average STEX3 for time points **********</t>
+  </si>
+  <si>
+    <t>Night A</t>
+  </si>
+  <si>
+    <t>Night B</t>
+  </si>
+  <si>
+    <t>Day A</t>
   </si>
   <si>
     <t>Day 1</t>
@@ -146,7 +156,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +184,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,7 +377,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -380,6 +396,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -387,38 +436,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1027,11 +1044,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2120589792"/>
-        <c:axId val="2130985488"/>
+        <c:axId val="2097405216"/>
+        <c:axId val="2097413600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2120589792"/>
+        <c:axId val="2097405216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1132,7 +1149,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2130985488"/>
+        <c:crossAx val="2097413600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1141,7 +1158,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2130985488"/>
+        <c:axId val="2097413600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.5"/>
@@ -1237,7 +1254,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2120589792"/>
+        <c:crossAx val="2097405216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1374,7 +1391,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1861,11 +1877,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2131225648"/>
-        <c:axId val="2131250064"/>
+        <c:axId val="2079872768"/>
+        <c:axId val="2079878944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2131225648"/>
+        <c:axId val="2079872768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1902,7 +1918,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1966,7 +1981,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131250064"/>
+        <c:crossAx val="2079878944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1975,7 +1990,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2131250064"/>
+        <c:axId val="2079878944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2007,7 +2022,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2070,7 +2084,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131225648"/>
+        <c:crossAx val="2079872768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2084,7 +2098,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2732,11 +2745,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2131447824"/>
-        <c:axId val="2131454000"/>
+        <c:axId val="2097501008"/>
+        <c:axId val="2097507200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2131447824"/>
+        <c:axId val="2097501008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2837,7 +2850,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131454000"/>
+        <c:crossAx val="2097507200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2846,7 +2859,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2131454000"/>
+        <c:axId val="2097507200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2941,7 +2954,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131447824"/>
+        <c:crossAx val="2097501008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3062,6 +3075,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3687,8 +3701,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2120462176"/>
-        <c:axId val="2120461712"/>
+        <c:axId val="2079894224"/>
+        <c:axId val="2079897440"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5505,11 +5519,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2120462176"/>
-        <c:axId val="2120461712"/>
+        <c:axId val="2079894224"/>
+        <c:axId val="2079897440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2120462176"/>
+        <c:axId val="2079894224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5552,7 +5566,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2120461712"/>
+        <c:crossAx val="2079897440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5561,7 +5575,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120461712"/>
+        <c:axId val="2079897440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -5613,7 +5627,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2120462176"/>
+        <c:crossAx val="2079894224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5627,6 +5641,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5733,6 +5748,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6451,8 +6467,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2120421680"/>
-        <c:axId val="2120481072"/>
+        <c:axId val="2079972752"/>
+        <c:axId val="2097464800"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8557,11 +8573,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2120421680"/>
-        <c:axId val="2120481072"/>
+        <c:axId val="2079972752"/>
+        <c:axId val="2097464800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2120421680"/>
+        <c:axId val="2079972752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8604,7 +8620,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2120481072"/>
+        <c:crossAx val="2097464800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8613,7 +8629,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120481072"/>
+        <c:axId val="2097464800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -8665,7 +8681,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2120421680"/>
+        <c:crossAx val="2079972752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8679,6 +8695,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8790,6 +8807,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9433,8 +9451,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2120970768"/>
-        <c:axId val="2120973936"/>
+        <c:axId val="2079993232"/>
+        <c:axId val="2079996496"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11323,11 +11341,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2120970768"/>
-        <c:axId val="2120973936"/>
+        <c:axId val="2079993232"/>
+        <c:axId val="2079996496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2120970768"/>
+        <c:axId val="2079993232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11370,7 +11388,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2120973936"/>
+        <c:crossAx val="2079996496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11379,7 +11397,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120973936"/>
+        <c:axId val="2079996496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -11431,7 +11449,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2120970768"/>
+        <c:crossAx val="2079993232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11445,6 +11463,759 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PVT Performance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> In the Night Shift</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.103216734614309"/>
+          <c:y val="0.24326320321071"/>
+          <c:w val="0.864490477441665"/>
+          <c:h val="0.633568303962005"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Night A</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="minus"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0.3"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Model!$B$15:$L$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>21:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34 h break</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Model!$B$16:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Night B</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="plus"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0.3"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="51000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Model!$B$15:$L$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>21:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34 h break</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Model!$B$21:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Day A</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="minus"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0.3"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Model!$B$15:$L$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>21:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34 h break</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Model!$B$26:$L$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2080014688"/>
+        <c:axId val="2080020624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2080014688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time points</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> within days</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2080020624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2080020624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>PVT lapses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2080014688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11712,6 +12483,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -14847,6 +15658,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -15036,6 +16363,43 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -15321,19 +16685,19 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -15672,22 +17036,22 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
@@ -16026,13 +17390,13 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
@@ -16394,13 +17758,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -16739,13 +18103,13 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -17450,13 +18814,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -17795,13 +19159,13 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -18499,7 +19863,7 @@
   <dimension ref="A1:C294"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27843,10 +29207,437 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A14:K28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C15" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D16">
+        <v>0.6</v>
+      </c>
+      <c r="E16">
+        <v>1.01</v>
+      </c>
+      <c r="F16">
+        <v>1.5</v>
+      </c>
+      <c r="H16">
+        <v>1.01</v>
+      </c>
+      <c r="I16">
+        <v>0.85</v>
+      </c>
+      <c r="J16">
+        <v>0.8</v>
+      </c>
+      <c r="K16">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="e">
+        <f>STDEV(B3:B7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D17" t="e">
+        <f>STDEV(C3:C7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E17" t="e">
+        <f>STDEV(D3:D7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F17" t="e">
+        <f>STDEV(E3:E7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" t="e">
+        <f>STDEV(B9:B13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" t="e">
+        <f>STDEV(C9:C13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" t="e">
+        <f>STDEV(D9:D13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K17" t="e">
+        <f>STDEV(E9:E13)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="e">
+        <f>(C17/SQRT(COUNT(B3:B7)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D18" t="e">
+        <f>(D17/SQRT(COUNT(C3:C7)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E18" t="e">
+        <f>(E17/SQRT(COUNT(D3:D7)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F18" t="e">
+        <f>(F17/SQRT(COUNT(E3:E7)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" t="e">
+        <f>(H17/SQRT(COUNT(B9:B13)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" t="e">
+        <f>(I17/SQRT(COUNT(C9:C13)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" t="e">
+        <f>(J17/SQRT(COUNT(D9:D13)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K18" t="e">
+        <f>(K17/SQRT(COUNT(E9:E13)))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C20" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0.62</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1.45</v>
+      </c>
+      <c r="F21">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H21">
+        <v>1.03</v>
+      </c>
+      <c r="I21">
+        <v>1.2</v>
+      </c>
+      <c r="J21">
+        <v>1.3</v>
+      </c>
+      <c r="K21">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="e">
+        <f>STDEV(B8:B12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D22" t="e">
+        <f>STDEV(C8:C12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" t="e">
+        <f>STDEV(D8:D12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F22" t="e">
+        <f>STDEV(E8:E12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H22" t="e">
+        <f>STDEV(B14:B18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" t="e">
+        <f>STDEV(C14:C18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22" t="e">
+        <f>STDEV(D14:D18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" t="e">
+        <f>STDEV(E14:E18)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="e">
+        <f>(C22/SQRT(COUNT(B8:B12)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D23" t="e">
+        <f>(D22/SQRT(COUNT(C8:C12)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E23" t="e">
+        <f>(E22/SQRT(COUNT(D8:D12)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F23" t="e">
+        <f>(F22/SQRT(COUNT(E8:E12)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H23" t="e">
+        <f>(H22/SQRT(COUNT(B14:B18)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" t="e">
+        <f>(I22/SQRT(COUNT(C14:C18)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J23" t="e">
+        <f>(J22/SQRT(COUNT(D14:D18)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K23" t="e">
+        <f>(K22/SQRT(COUNT(E14:E18)))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C25" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0.6</v>
+      </c>
+      <c r="D26">
+        <v>0.8</v>
+      </c>
+      <c r="E26">
+        <v>0.75</v>
+      </c>
+      <c r="F26">
+        <v>0.8</v>
+      </c>
+      <c r="H26">
+        <v>1.05</v>
+      </c>
+      <c r="I26">
+        <v>0.8</v>
+      </c>
+      <c r="J26">
+        <v>1.2</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="e">
+        <f>STDEV(B13:B17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" t="e">
+        <f>STDEV(C13:C17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" t="e">
+        <f>STDEV(D13:D17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" t="e">
+        <f>STDEV(E13:E17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H27" t="e">
+        <f>STDEV(B19:B23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" t="e">
+        <f>STDEV(C19:C23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J27" t="e">
+        <f>STDEV(D19:D23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" t="e">
+        <f>STDEV(E19:E23)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="e">
+        <f>(C27/SQRT(COUNT(B13:B17)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D28" t="e">
+        <f>(D27/SQRT(COUNT(C13:C17)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" t="e">
+        <f>(E27/SQRT(COUNT(D13:D17)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F28" t="e">
+        <f>(F27/SQRT(COUNT(E13:E17)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" t="e">
+        <f>(H27/SQRT(COUNT(B19:B23)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" t="e">
+        <f>(I27/SQRT(COUNT(C19:C23)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28" t="e">
+        <f>(J27/SQRT(COUNT(D19:D23)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K28" t="e">
+        <f>(K27/SQRT(COUNT(E19:E23)))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:AC39"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:AB5"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27856,1305 +29647,1305 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
     </row>
     <row r="6" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="34">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16">
         <v>0</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="17">
         <v>1</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="17">
         <v>2</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="17">
         <v>3</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="17">
         <v>4</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="17">
         <v>5</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6" s="17">
         <v>6</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="17">
         <v>7</v>
       </c>
-      <c r="M6" s="35">
+      <c r="M6" s="17">
         <v>8</v>
       </c>
-      <c r="N6" s="36">
+      <c r="N6" s="18">
         <v>9</v>
       </c>
-      <c r="O6" s="36">
-        <v>10</v>
-      </c>
-      <c r="P6" s="36">
+      <c r="O6" s="18">
+        <v>10</v>
+      </c>
+      <c r="P6" s="18">
         <v>11</v>
       </c>
-      <c r="Q6" s="36">
+      <c r="Q6" s="18">
         <v>12</v>
       </c>
-      <c r="R6" s="36">
+      <c r="R6" s="18">
         <v>13</v>
       </c>
-      <c r="S6" s="36">
+      <c r="S6" s="18">
         <v>14</v>
       </c>
-      <c r="T6" s="36">
+      <c r="T6" s="18">
         <v>15</v>
       </c>
-      <c r="U6" s="36">
+      <c r="U6" s="18">
         <v>16</v>
       </c>
-      <c r="V6" s="36">
+      <c r="V6" s="18">
         <v>17</v>
       </c>
-      <c r="W6" s="36">
+      <c r="W6" s="18">
         <v>18</v>
       </c>
-      <c r="X6" s="36">
+      <c r="X6" s="18">
         <v>19</v>
       </c>
-      <c r="Y6" s="36">
+      <c r="Y6" s="18">
         <v>20</v>
       </c>
-      <c r="Z6" s="36">
+      <c r="Z6" s="18">
         <v>21</v>
       </c>
-      <c r="AA6" s="36">
+      <c r="AA6" s="18">
         <v>22</v>
       </c>
-      <c r="AB6" s="37">
+      <c r="AB6" s="19">
         <v>23</v>
       </c>
-      <c r="AC6" s="17"/>
+      <c r="AC6" s="15"/>
     </row>
     <row r="7" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C7" s="17"/>
-      <c r="D7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="17"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="15"/>
     </row>
     <row r="8" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C8" s="17"/>
-      <c r="D8" s="25" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="15"/>
+    </row>
+    <row r="9" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C9" s="15"/>
+      <c r="D9" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="15"/>
+    </row>
+    <row r="10" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C10" s="15"/>
+      <c r="D10" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="15"/>
+    </row>
+    <row r="11" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C11" s="15"/>
+      <c r="D11" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="15"/>
+    </row>
+    <row r="12" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C12" s="15"/>
+      <c r="D12" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="15"/>
+    </row>
+    <row r="13" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C13" s="15"/>
+      <c r="D13" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="15"/>
+    </row>
+    <row r="14" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C14" s="15"/>
+      <c r="D14" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="15"/>
+    </row>
+    <row r="15" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C15" s="15"/>
+      <c r="D15" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="15"/>
+    </row>
+    <row r="16" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C16" s="15"/>
+      <c r="D16" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="15"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C17" s="15"/>
+      <c r="D17" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="15"/>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C18" s="15"/>
+      <c r="D18" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="15"/>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C19" s="15"/>
+      <c r="D19" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="15"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C20" s="15"/>
+      <c r="D20" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="15"/>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="35">
+        <v>0</v>
+      </c>
+      <c r="F23" s="18">
+        <v>1</v>
+      </c>
+      <c r="G23" s="18">
+        <v>2</v>
+      </c>
+      <c r="H23" s="18">
+        <v>3</v>
+      </c>
+      <c r="I23" s="18">
+        <v>4</v>
+      </c>
+      <c r="J23" s="18">
+        <v>5</v>
+      </c>
+      <c r="K23" s="18">
+        <v>6</v>
+      </c>
+      <c r="L23" s="18">
+        <v>7</v>
+      </c>
+      <c r="M23" s="18">
+        <v>8</v>
+      </c>
+      <c r="N23" s="18">
+        <v>9</v>
+      </c>
+      <c r="O23" s="18">
+        <v>10</v>
+      </c>
+      <c r="P23" s="18">
         <v>11</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23" t="s">
+      <c r="Q23" s="18">
         <v>12</v>
       </c>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="17"/>
-    </row>
-    <row r="9" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C9" s="17"/>
-      <c r="D9" s="25" t="s">
+      <c r="R23" s="18">
         <v>13</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="17"/>
-    </row>
-    <row r="10" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C10" s="17"/>
-      <c r="D10" s="25" t="s">
+      <c r="S23" s="18">
         <v>14</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="23"/>
-      <c r="AC10" s="17"/>
-    </row>
-    <row r="11" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C11" s="17"/>
-      <c r="D11" s="25" t="s">
+      <c r="T23" s="18">
         <v>15</v>
       </c>
-      <c r="E11" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="17"/>
-    </row>
-    <row r="12" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C12" s="17"/>
-      <c r="D12" s="25" t="s">
+      <c r="U23" s="18">
         <v>16</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
-      <c r="AC12" s="17"/>
-    </row>
-    <row r="13" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C13" s="17"/>
-      <c r="D13" s="25" t="s">
+      <c r="V23" s="18">
         <v>17</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="17"/>
-    </row>
-    <row r="14" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C14" s="17"/>
-      <c r="D14" s="25" t="s">
+      <c r="W23" s="18">
         <v>18</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="17"/>
-    </row>
-    <row r="15" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C15" s="17"/>
-      <c r="D15" s="25" t="s">
+      <c r="X23" s="18">
         <v>19</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="17"/>
-    </row>
-    <row r="16" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C16" s="17"/>
-      <c r="D16" s="25" t="s">
+      <c r="Y23" s="18">
         <v>20</v>
       </c>
-      <c r="E16" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="17"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C17" s="17"/>
-      <c r="D17" s="25" t="s">
+      <c r="Z23" s="18">
         <v>21</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="17"/>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C18" s="17"/>
-      <c r="D18" s="25" t="s">
+      <c r="AA23" s="18">
         <v>22</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="17"/>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C19" s="17"/>
-      <c r="D19" s="25" t="s">
+      <c r="AB23" s="19">
         <v>23</v>
       </c>
-      <c r="E19" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="17"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C20" s="17"/>
-      <c r="D20" s="30" t="s">
+      <c r="AC23" s="15"/>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C24" s="15"/>
+      <c r="D24" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="15"/>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C25" s="15"/>
+      <c r="D25" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="26"/>
+      <c r="AC25" s="15"/>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C26" s="15"/>
+      <c r="D26" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="15"/>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C27" s="15"/>
+      <c r="D27" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="15"/>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C28" s="15"/>
+      <c r="D28" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="15"/>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C29" s="15"/>
+      <c r="D29" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="15"/>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C30" s="15"/>
+      <c r="D30" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="15"/>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C31" s="15"/>
+      <c r="D31" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="15"/>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C32" s="15"/>
+      <c r="D32" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="15"/>
+    </row>
+    <row r="33" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C33" s="15"/>
+      <c r="D33" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="15"/>
+    </row>
+    <row r="34" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C34" s="15"/>
+      <c r="D34" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
-      <c r="AC20" s="17"/>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="17"/>
-      <c r="AC21" s="17"/>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="17"/>
-      <c r="AC22" s="17"/>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="38">
-        <v>0</v>
-      </c>
-      <c r="F23" s="36">
-        <v>1</v>
-      </c>
-      <c r="G23" s="36">
-        <v>2</v>
-      </c>
-      <c r="H23" s="36">
-        <v>3</v>
-      </c>
-      <c r="I23" s="36">
-        <v>4</v>
-      </c>
-      <c r="J23" s="36">
-        <v>5</v>
-      </c>
-      <c r="K23" s="36">
-        <v>6</v>
-      </c>
-      <c r="L23" s="36">
-        <v>7</v>
-      </c>
-      <c r="M23" s="36">
-        <v>8</v>
-      </c>
-      <c r="N23" s="36">
-        <v>9</v>
-      </c>
-      <c r="O23" s="36">
-        <v>10</v>
-      </c>
-      <c r="P23" s="36">
-        <v>11</v>
-      </c>
-      <c r="Q23" s="36">
-        <v>12</v>
-      </c>
-      <c r="R23" s="36">
-        <v>13</v>
-      </c>
-      <c r="S23" s="36">
-        <v>14</v>
-      </c>
-      <c r="T23" s="36">
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="U23" s="36">
-        <v>16</v>
-      </c>
-      <c r="V23" s="36">
-        <v>17</v>
-      </c>
-      <c r="W23" s="36">
-        <v>18</v>
-      </c>
-      <c r="X23" s="36">
-        <v>19</v>
-      </c>
-      <c r="Y23" s="36">
-        <v>20</v>
-      </c>
-      <c r="Z23" s="36">
-        <v>21</v>
-      </c>
-      <c r="AA23" s="36">
-        <v>22</v>
-      </c>
-      <c r="AB23" s="37">
-        <v>23</v>
-      </c>
-      <c r="AC23" s="17"/>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C24" s="17"/>
-      <c r="D24" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="24"/>
-      <c r="AB24" s="24"/>
-      <c r="AC24" s="17"/>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C25" s="17"/>
-      <c r="D25" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="24"/>
-      <c r="AB25" s="24"/>
-      <c r="AC25" s="17"/>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C26" s="17"/>
-      <c r="D26" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="X26" s="23"/>
-      <c r="Y26" s="23"/>
-      <c r="Z26" s="23"/>
-      <c r="AA26" s="24"/>
-      <c r="AB26" s="24"/>
-      <c r="AC26" s="17"/>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C27" s="17"/>
-      <c r="D27" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="23"/>
-      <c r="Z27" s="23"/>
-      <c r="AA27" s="24"/>
-      <c r="AB27" s="24"/>
-      <c r="AC27" s="17"/>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C28" s="17"/>
-      <c r="D28" s="25" t="s">
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="23"/>
-      <c r="AA28" s="24"/>
-      <c r="AB28" s="24"/>
-      <c r="AC28" s="17"/>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C29" s="17"/>
-      <c r="D29" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="23"/>
-      <c r="AA29" s="24"/>
-      <c r="AB29" s="24"/>
-      <c r="AC29" s="17"/>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C30" s="17"/>
-      <c r="D30" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="R30" s="23"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="U30" s="23"/>
-      <c r="V30" s="23"/>
-      <c r="W30" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="X30" s="23"/>
-      <c r="Y30" s="23"/>
-      <c r="Z30" s="23"/>
-      <c r="AA30" s="24"/>
-      <c r="AB30" s="24"/>
-      <c r="AC30" s="17"/>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C31" s="17"/>
-      <c r="D31" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
-      <c r="X31" s="23"/>
-      <c r="Y31" s="23"/>
-      <c r="Z31" s="23"/>
-      <c r="AA31" s="24"/>
-      <c r="AB31" s="24"/>
-      <c r="AC31" s="17"/>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C32" s="17"/>
-      <c r="D32" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="X32" s="23"/>
-      <c r="Y32" s="23"/>
-      <c r="Z32" s="23"/>
-      <c r="AA32" s="24"/>
-      <c r="AB32" s="24"/>
-      <c r="AC32" s="17"/>
-    </row>
-    <row r="33" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C33" s="17"/>
-      <c r="D33" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="U33" s="23"/>
-      <c r="V33" s="23"/>
-      <c r="W33" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="X33" s="23"/>
-      <c r="Y33" s="23"/>
-      <c r="Z33" s="23"/>
-      <c r="AA33" s="24"/>
-      <c r="AB33" s="24"/>
-      <c r="AC33" s="17"/>
-    </row>
-    <row r="34" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C34" s="17"/>
-      <c r="D34" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="23"/>
-      <c r="Z34" s="23"/>
-      <c r="AA34" s="24"/>
-      <c r="AB34" s="24"/>
-      <c r="AC34" s="17"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="25"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="15"/>
     </row>
     <row r="35" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C35" s="17"/>
-      <c r="D35" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="23"/>
-      <c r="AA35" s="24"/>
-      <c r="AB35" s="24"/>
-      <c r="AC35" s="17"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="25"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="15"/>
     </row>
     <row r="36" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C36" s="17"/>
-      <c r="D36" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="U36" s="23"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="X36" s="23"/>
-      <c r="Y36" s="23"/>
-      <c r="Z36" s="23"/>
-      <c r="AA36" s="24"/>
-      <c r="AB36" s="24"/>
-      <c r="AC36" s="17"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="25"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="15"/>
     </row>
     <row r="37" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C37" s="17"/>
-      <c r="D37" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="32"/>
-      <c r="U37" s="32"/>
-      <c r="V37" s="32"/>
-      <c r="W37" s="32"/>
-      <c r="X37" s="32"/>
-      <c r="Y37" s="32"/>
-      <c r="Z37" s="32"/>
-      <c r="AA37" s="32"/>
-      <c r="AB37" s="32"/>
-      <c r="AC37" s="17"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="34"/>
+      <c r="AB37" s="34"/>
+      <c r="AC37" s="15"/>
     </row>
     <row r="38" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="17"/>
-      <c r="V38" s="17"/>
-      <c r="W38" s="17"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="17"/>
-      <c r="Z38" s="17"/>
-      <c r="AA38" s="17"/>
-      <c r="AB38" s="17"/>
-      <c r="AC38" s="17"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="15"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="15"/>
+      <c r="Y38" s="15"/>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="15"/>
+      <c r="AB38" s="15"/>
+      <c r="AC38" s="15"/>
     </row>
     <row r="39" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="AC39" s="17"/>
+      <c r="AC39" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/result/ResultA&B.xlsx
+++ b/result/ResultA&B.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="980" windowWidth="25600" windowHeight="16560" tabRatio="500" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="9640" yWindow="460" windowWidth="25280" windowHeight="22160" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Night A" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="BioMath Values Nigth A" sheetId="8" r:id="rId4"/>
     <sheet name="BioMath Values Night B" sheetId="9" r:id="rId5"/>
     <sheet name="BioMath Values Day A" sheetId="10" r:id="rId6"/>
-    <sheet name="Model" sheetId="11" r:id="rId7"/>
+    <sheet name="Experiment" sheetId="11" r:id="rId7"/>
     <sheet name="sleep schedule" sheetId="13" r:id="rId8"/>
+    <sheet name="analysis" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="57">
   <si>
     <t>Day</t>
   </si>
@@ -119,12 +120,99 @@
   <si>
     <t>Day 14</t>
   </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMSE = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R= </t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>X Variable 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -155,8 +243,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,8 +307,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -369,6 +471,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -377,7 +519,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -437,6 +579,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -500,7 +663,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> In the Night Shift</a:t>
+              <a:t>s</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -546,7 +709,7 @@
           <c:x val="0.103216734614309"/>
           <c:y val="0.24326320321071"/>
           <c:w val="0.864490477441665"/>
-          <c:h val="0.633568303962005"/>
+          <c:h val="0.567595964566929"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1044,11 +1207,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2097405216"/>
-        <c:axId val="2097413600"/>
+        <c:axId val="2079990768"/>
+        <c:axId val="2079996800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2097405216"/>
+        <c:axId val="2079990768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1149,7 +1312,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2097413600"/>
+        <c:crossAx val="2079996800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1158,7 +1321,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2097413600"/>
+        <c:axId val="2079996800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.5"/>
@@ -1254,7 +1417,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2097405216"/>
+        <c:crossAx val="2079990768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1385,12 +1548,12 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> In the Night Shift</a:t>
+              <a:t>s</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1877,11 +2040,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2079872768"/>
-        <c:axId val="2079878944"/>
+        <c:axId val="2098073632"/>
+        <c:axId val="2098079808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2079872768"/>
+        <c:axId val="2098073632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1918,6 +2081,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1981,7 +2145,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2079878944"/>
+        <c:crossAx val="2098079808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1990,7 +2154,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2079878944"/>
+        <c:axId val="2098079808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2022,6 +2186,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2084,7 +2249,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2079872768"/>
+        <c:crossAx val="2098073632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2098,6 +2263,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2211,7 +2377,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> In the Night Shift</a:t>
+              <a:t>s</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2745,11 +2911,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2097501008"/>
-        <c:axId val="2097507200"/>
+        <c:axId val="2098050048"/>
+        <c:axId val="2080109440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2097501008"/>
+        <c:axId val="2098050048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2850,7 +3016,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2097507200"/>
+        <c:crossAx val="2080109440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2859,7 +3025,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2097507200"/>
+        <c:axId val="2080109440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2954,7 +3120,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2097501008"/>
+        <c:crossAx val="2098050048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3701,8 +3867,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2079894224"/>
-        <c:axId val="2079897440"/>
+        <c:axId val="2098145664"/>
+        <c:axId val="2098148928"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5519,11 +5685,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2079894224"/>
-        <c:axId val="2079897440"/>
+        <c:axId val="2098145664"/>
+        <c:axId val="2098148928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2079894224"/>
+        <c:axId val="2098145664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5566,7 +5732,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2079897440"/>
+        <c:crossAx val="2098148928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5575,7 +5741,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2079897440"/>
+        <c:axId val="2098148928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -5627,7 +5793,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2079894224"/>
+        <c:crossAx val="2098145664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5748,7 +5914,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6467,8 +6632,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2079972752"/>
-        <c:axId val="2097464800"/>
+        <c:axId val="2098178896"/>
+        <c:axId val="2098182160"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8573,11 +8738,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2079972752"/>
-        <c:axId val="2097464800"/>
+        <c:axId val="2098178896"/>
+        <c:axId val="2098182160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2079972752"/>
+        <c:axId val="2098178896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8620,7 +8785,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2097464800"/>
+        <c:crossAx val="2098182160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8629,7 +8794,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2097464800"/>
+        <c:axId val="2098182160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -8681,7 +8846,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2079972752"/>
+        <c:crossAx val="2098178896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8695,7 +8860,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8807,7 +8971,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9451,8 +9614,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2079993232"/>
-        <c:axId val="2079996496"/>
+        <c:axId val="2080194592"/>
+        <c:axId val="2080197856"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11341,11 +11504,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2079993232"/>
-        <c:axId val="2079996496"/>
+        <c:axId val="2080194592"/>
+        <c:axId val="2080197856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2079993232"/>
+        <c:axId val="2080194592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11388,7 +11551,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2079996496"/>
+        <c:crossAx val="2080197856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11397,7 +11560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2079996496"/>
+        <c:axId val="2080197856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -11449,7 +11612,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2079993232"/>
+        <c:crossAx val="2080194592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11463,7 +11626,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11569,7 +11731,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> In the Night Shift</a:t>
+              <a:t>s</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -11615,7 +11777,7 @@
           <c:x val="0.103216734614309"/>
           <c:y val="0.24326320321071"/>
           <c:w val="0.864490477441665"/>
-          <c:h val="0.633568303962005"/>
+          <c:h val="0.574540409011373"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -11630,7 +11792,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:prstDash val="dash"/>
               <a:round/>
@@ -11671,7 +11833,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$B$15:$L$15</c:f>
+              <c:f>Experiment!$B$15:$L$15</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="1">
@@ -11706,18 +11868,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$B$16:$L$16</c:f>
+              <c:f>Experiment!$B$16:$L$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="1">
-                  <c:v>0.58</c:v>
+                  <c:v>0.55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.01</c:v>
+                  <c:v>1.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.5</c:v>
@@ -11726,13 +11888,13 @@
                   <c:v>1.01</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.85</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11792,7 +11954,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$B$15:$L$15</c:f>
+              <c:f>Experiment!$B$15:$L$15</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="1">
@@ -11827,33 +11989,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$B$21:$L$21</c:f>
+              <c:f>Experiment!$B$21:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="1">
-                  <c:v>0.62</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>1.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.45</c:v>
+                  <c:v>1.49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3</c:v>
+                  <c:v>2.26</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.03</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2</c:v>
+                  <c:v>1.28</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4</c:v>
+                  <c:v>2.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11869,7 +12031,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:prstDash val="dash"/>
               <a:round/>
@@ -11910,7 +12072,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$B$15:$L$15</c:f>
+              <c:f>Experiment!$B$15:$L$15</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="1">
@@ -11945,33 +12107,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$B$26:$L$26</c:f>
+              <c:f>Experiment!$B$26:$L$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.05</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.8</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2</c:v>
+                  <c:v>1.18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11988,11 +12150,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2080014688"/>
-        <c:axId val="2080020624"/>
+        <c:axId val="2080238656"/>
+        <c:axId val="2080244848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2080014688"/>
+        <c:axId val="2080238656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12093,7 +12255,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2080020624"/>
+        <c:crossAx val="2080244848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12102,7 +12264,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2080020624"/>
+        <c:axId val="2080244848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.5"/>
@@ -12198,7 +12360,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2080014688"/>
+        <c:crossAx val="2080238656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16386,16 +16548,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>429260</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16684,8 +16846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17751,8 +17913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18807,8 +18969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19862,7 +20024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C294"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
@@ -22780,7 +22942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C342"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
@@ -26175,7 +26337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C306"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
@@ -29209,8 +29371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A14:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29254,13 +29416,13 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>0.57999999999999996</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D16">
-        <v>0.6</v>
+        <v>0.68</v>
       </c>
       <c r="E16">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="F16">
         <v>1.5</v>
@@ -29269,13 +29431,13 @@
         <v>1.01</v>
       </c>
       <c r="I16">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="J16">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K16">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -29391,28 +29553,28 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E21">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="F21">
-        <v>2.2999999999999998</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="H21">
         <v>1.03</v>
       </c>
       <c r="I21">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="J21">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="K21">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -29528,28 +29690,28 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="D26">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="E26">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="F26">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="I26">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="J26">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -29636,7 +29798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:AC39"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -30950,4 +31112,877 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Y52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="43"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="45">
+        <v>0.875</v>
+      </c>
+      <c r="D4" s="45">
+        <v>0</v>
+      </c>
+      <c r="E4" s="45">
+        <v>0.125</v>
+      </c>
+      <c r="F4" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="G4" s="45">
+        <v>0.875</v>
+      </c>
+      <c r="H4" s="45">
+        <v>0</v>
+      </c>
+      <c r="I4" s="45">
+        <v>0.125</v>
+      </c>
+      <c r="J4" s="50">
+        <v>0.25</v>
+      </c>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="42">
+        <v>1.1199999999999999</v>
+      </c>
+      <c r="D5" s="42">
+        <v>1.3580000000000001</v>
+      </c>
+      <c r="E5" s="42">
+        <v>1.7419999999999998</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2.8679999999999999</v>
+      </c>
+      <c r="G5" s="42">
+        <v>1.03</v>
+      </c>
+      <c r="H5" s="42">
+        <v>1.1320000000000001</v>
+      </c>
+      <c r="I5" s="42">
+        <v>1.4200000000000002</v>
+      </c>
+      <c r="J5" s="5">
+        <v>2.4159999999999995</v>
+      </c>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="44">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="D6" s="44">
+        <v>1.29</v>
+      </c>
+      <c r="E6" s="44">
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2.8180000000000001</v>
+      </c>
+      <c r="G6" s="44">
+        <v>1.0299999999999998</v>
+      </c>
+      <c r="H6" s="44">
+        <v>1.1539999999999999</v>
+      </c>
+      <c r="I6" s="44">
+        <v>1.47</v>
+      </c>
+      <c r="J6" s="6">
+        <v>2.444</v>
+      </c>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="47">
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="D7" s="47">
+        <v>1.262</v>
+      </c>
+      <c r="E7" s="47">
+        <v>1.4339999999999997</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1.3739999999999999</v>
+      </c>
+      <c r="G7" s="47">
+        <v>0.9760000000000002</v>
+      </c>
+      <c r="H7" s="47">
+        <v>1.1300000000000001</v>
+      </c>
+      <c r="I7" s="47">
+        <v>1.248</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1.288</v>
+      </c>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="5"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="43"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="45">
+        <v>0.875</v>
+      </c>
+      <c r="D13" s="45">
+        <v>0</v>
+      </c>
+      <c r="E13" s="45">
+        <v>0.125</v>
+      </c>
+      <c r="F13" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="G13" s="45">
+        <v>0.875</v>
+      </c>
+      <c r="H13" s="45">
+        <v>0</v>
+      </c>
+      <c r="I13" s="45">
+        <v>0.125</v>
+      </c>
+      <c r="J13" s="50">
+        <v>0.25</v>
+      </c>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="42">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D14" s="42">
+        <v>0.68</v>
+      </c>
+      <c r="E14" s="42">
+        <v>1.05</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="G14" s="42">
+        <v>1.01</v>
+      </c>
+      <c r="H14" s="42">
+        <v>0.91</v>
+      </c>
+      <c r="I14" s="42">
+        <v>0.9</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="44">
+        <v>0.7</v>
+      </c>
+      <c r="D15" s="44">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E15" s="44">
+        <v>1.49</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="G15" s="44">
+        <v>1.03</v>
+      </c>
+      <c r="H15" s="44">
+        <v>1.28</v>
+      </c>
+      <c r="I15" s="44">
+        <v>1.4</v>
+      </c>
+      <c r="J15" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="47">
+        <v>0.65</v>
+      </c>
+      <c r="D16" s="47">
+        <v>0.95</v>
+      </c>
+      <c r="E16" s="47">
+        <v>0.91</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="47">
+        <v>1.08</v>
+      </c>
+      <c r="H16" s="47">
+        <v>0.85</v>
+      </c>
+      <c r="I16" s="47">
+        <v>1.18</v>
+      </c>
+      <c r="J16" s="7">
+        <v>1.02</v>
+      </c>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="44">
+        <v>1.1199999999999999</v>
+      </c>
+      <c r="C22" s="44">
+        <v>1.3580000000000001</v>
+      </c>
+      <c r="D22" s="44">
+        <v>1.7419999999999998</v>
+      </c>
+      <c r="E22" s="44">
+        <v>2.8679999999999999</v>
+      </c>
+      <c r="F22" s="44">
+        <v>1.03</v>
+      </c>
+      <c r="G22" s="44">
+        <v>1.1320000000000001</v>
+      </c>
+      <c r="H22" s="44">
+        <v>1.4200000000000002</v>
+      </c>
+      <c r="I22" s="44">
+        <v>2.4159999999999995</v>
+      </c>
+      <c r="J22" s="44">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="K22" s="44">
+        <v>1.29</v>
+      </c>
+      <c r="L22" s="44">
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="M22" s="44">
+        <v>2.8180000000000001</v>
+      </c>
+      <c r="N22" s="44">
+        <v>1.0299999999999998</v>
+      </c>
+      <c r="O22" s="44">
+        <v>1.1539999999999999</v>
+      </c>
+      <c r="P22" s="44">
+        <v>1.47</v>
+      </c>
+      <c r="Q22" s="44">
+        <v>2.444</v>
+      </c>
+      <c r="R22" s="44">
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="S22" s="44">
+        <v>1.262</v>
+      </c>
+      <c r="T22" s="44">
+        <v>1.4339999999999997</v>
+      </c>
+      <c r="U22" s="44">
+        <v>1.3739999999999999</v>
+      </c>
+      <c r="V22" s="44">
+        <v>0.9760000000000002</v>
+      </c>
+      <c r="W22" s="44">
+        <v>1.1300000000000001</v>
+      </c>
+      <c r="X22" s="44">
+        <v>1.248</v>
+      </c>
+      <c r="Y22" s="44">
+        <v>1.288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="44">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C23" s="44">
+        <v>0.68</v>
+      </c>
+      <c r="D23" s="44">
+        <v>1.05</v>
+      </c>
+      <c r="E23" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="F23" s="44">
+        <v>1.01</v>
+      </c>
+      <c r="G23" s="44">
+        <v>0.91</v>
+      </c>
+      <c r="H23" s="44">
+        <v>0.9</v>
+      </c>
+      <c r="I23" s="44">
+        <v>1.3</v>
+      </c>
+      <c r="J23" s="44">
+        <v>0.7</v>
+      </c>
+      <c r="K23" s="44">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L23" s="44">
+        <v>1.49</v>
+      </c>
+      <c r="M23" s="44">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="N23" s="44">
+        <v>1.03</v>
+      </c>
+      <c r="O23" s="44">
+        <v>1.28</v>
+      </c>
+      <c r="P23" s="44">
+        <v>1.4</v>
+      </c>
+      <c r="Q23" s="44">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R23" s="44">
+        <v>0.65</v>
+      </c>
+      <c r="S23" s="44">
+        <v>0.95</v>
+      </c>
+      <c r="T23" s="44">
+        <v>0.91</v>
+      </c>
+      <c r="U23" s="44">
+        <v>1</v>
+      </c>
+      <c r="V23" s="44">
+        <v>1.08</v>
+      </c>
+      <c r="W23" s="44">
+        <v>0.85</v>
+      </c>
+      <c r="X23" s="44">
+        <v>1.18</v>
+      </c>
+      <c r="Y23" s="44">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <f>SQRT(SUMXMY2(B22:Y22,B23:Y23)/COUNT(B22:Y22))</f>
+        <v>0.51106636881459278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27">
+        <f>CORREL(B22:Y22,B23:Y23)</f>
+        <v>0.7644005117781012</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D29" s="44">
+        <v>1.1199999999999999</v>
+      </c>
+      <c r="E29" s="44">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="44">
+        <v>1.3580000000000001</v>
+      </c>
+      <c r="E30" s="44">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D31" s="44">
+        <v>1.7419999999999998</v>
+      </c>
+      <c r="E31" s="44">
+        <v>1.05</v>
+      </c>
+      <c r="G31" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="54"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D32" s="44">
+        <v>2.8679999999999999</v>
+      </c>
+      <c r="E32" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="G32" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" s="51">
+        <v>0.76440051177810142</v>
+      </c>
+    </row>
+    <row r="33" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D33" s="44">
+        <v>1.03</v>
+      </c>
+      <c r="E33" s="44">
+        <v>1.01</v>
+      </c>
+      <c r="G33" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" s="51">
+        <v>0.58430814240662332</v>
+      </c>
+    </row>
+    <row r="34" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D34" s="44">
+        <v>1.1320000000000001</v>
+      </c>
+      <c r="E34" s="44">
+        <v>0.91</v>
+      </c>
+      <c r="G34" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" s="51">
+        <v>0.56541305797056074</v>
+      </c>
+    </row>
+    <row r="35" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D35" s="44">
+        <v>1.4200000000000002</v>
+      </c>
+      <c r="E35" s="44">
+        <v>0.9</v>
+      </c>
+      <c r="G35" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" s="51">
+        <v>0.36788519380324847</v>
+      </c>
+    </row>
+    <row r="36" spans="4:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="44">
+        <v>2.4159999999999995</v>
+      </c>
+      <c r="E36" s="44">
+        <v>1.3</v>
+      </c>
+      <c r="G36" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" s="52">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D37" s="44">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="E37" s="44">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="38" spans="4:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="44">
+        <v>1.29</v>
+      </c>
+      <c r="E38" s="44">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D39" s="44">
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="E39" s="44">
+        <v>1.49</v>
+      </c>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="J39" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="K39" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="L39" s="53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D40" s="44">
+        <v>2.8180000000000001</v>
+      </c>
+      <c r="E40" s="44">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="G40" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" s="51">
+        <v>1</v>
+      </c>
+      <c r="I40" s="51">
+        <v>4.1852144853009516</v>
+      </c>
+      <c r="J40" s="51">
+        <v>4.1852144853009516</v>
+      </c>
+      <c r="K40" s="51">
+        <v>30.923817481938887</v>
+      </c>
+      <c r="L40" s="51">
+        <v>1.3704445587812016E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D41" s="44">
+        <v>1.0299999999999998</v>
+      </c>
+      <c r="E41" s="44">
+        <v>1.03</v>
+      </c>
+      <c r="G41" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" s="51">
+        <v>22</v>
+      </c>
+      <c r="I41" s="51">
+        <v>2.9774693480323813</v>
+      </c>
+      <c r="J41" s="51">
+        <v>0.1353395158196537</v>
+      </c>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+    </row>
+    <row r="42" spans="4:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="44">
+        <v>1.1539999999999999</v>
+      </c>
+      <c r="E42" s="44">
+        <v>1.28</v>
+      </c>
+      <c r="G42" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" s="52">
+        <v>23</v>
+      </c>
+      <c r="I42" s="52">
+        <v>7.1626838333333325</v>
+      </c>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+    </row>
+    <row r="43" spans="4:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="44">
+        <v>1.47</v>
+      </c>
+      <c r="E43" s="44">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="44" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D44" s="44">
+        <v>2.444</v>
+      </c>
+      <c r="E44" s="44">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I44" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="J44" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="K44" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="L44" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="M44" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="N44" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="O44" s="53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D45" s="44">
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="E45" s="44">
+        <v>0.65</v>
+      </c>
+      <c r="G45" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="H45" s="51">
+        <v>0.38761653006150087</v>
+      </c>
+      <c r="I45" s="51">
+        <v>0.21356862491188877</v>
+      </c>
+      <c r="J45" s="51">
+        <v>1.8149507223798365</v>
+      </c>
+      <c r="K45" s="51">
+        <v>8.3190457313623123E-2</v>
+      </c>
+      <c r="L45" s="51">
+        <v>-5.5297689292562069E-2</v>
+      </c>
+      <c r="M45" s="51">
+        <v>0.83053074941556382</v>
+      </c>
+      <c r="N45" s="51">
+        <v>-5.5297689292562069E-2</v>
+      </c>
+      <c r="O45" s="51">
+        <v>0.83053074941556382</v>
+      </c>
+    </row>
+    <row r="46" spans="4:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="44">
+        <v>1.262</v>
+      </c>
+      <c r="E46" s="44">
+        <v>0.95</v>
+      </c>
+      <c r="G46" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H46" s="52">
+        <v>0.98462004717800655</v>
+      </c>
+      <c r="I46" s="52">
+        <v>0.17706067814488816</v>
+      </c>
+      <c r="J46" s="52">
+        <v>5.5609187623933947</v>
+      </c>
+      <c r="K46" s="52">
+        <v>1.3704445587812016E-5</v>
+      </c>
+      <c r="L46" s="52">
+        <v>0.61741867538850004</v>
+      </c>
+      <c r="M46" s="52">
+        <v>1.3518214189675131</v>
+      </c>
+      <c r="N46" s="52">
+        <v>0.61741867538850004</v>
+      </c>
+      <c r="O46" s="52">
+        <v>1.3518214189675131</v>
+      </c>
+    </row>
+    <row r="47" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D47" s="44">
+        <v>1.4339999999999997</v>
+      </c>
+      <c r="E47" s="44">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="48" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D48" s="44">
+        <v>1.3739999999999999</v>
+      </c>
+      <c r="E48" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D49" s="44">
+        <v>0.9760000000000002</v>
+      </c>
+      <c r="E49" s="44">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D50" s="44">
+        <v>1.1300000000000001</v>
+      </c>
+      <c r="E50" s="44">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D51" s="44">
+        <v>1.248</v>
+      </c>
+      <c r="E51" s="44">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D52" s="44">
+        <v>1.288</v>
+      </c>
+      <c r="E52" s="44">
+        <v>1.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A11:K11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>